--- a/problem_sets/Excel PS06082025.xlsx
+++ b/problem_sets/Excel PS06082025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilso\Repo\practice\problem_sets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82A392B4-9B4F-43FF-A415-6B125A08E2BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F4ADF41-9C38-4047-B475-86818085C17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25035" yWindow="1020" windowWidth="27105" windowHeight="15885" xr2:uid="{37606648-9AB2-493A-9E4F-F503246E71C4}"/>
+    <workbookView xWindow="2145" yWindow="3495" windowWidth="22695" windowHeight="15885" xr2:uid="{37606648-9AB2-493A-9E4F-F503246E71C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
